--- a/TestData/ValidationMessage.xlsx
+++ b/TestData/ValidationMessage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Auto\10-5-23\capgemini\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Auto\Backup\10-5-23\capgemini\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1FA651-6341-49FC-AE81-8AD11CDB8D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42FEC56-024C-41C3-9F05-24F69EC7194C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{0393873A-44AD-4FE3-BA68-AA29AC0BBC29}"/>
   </bookViews>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>udaychavan12@gmail.com</t>
+    <t>Insurance Broker System</t>
   </si>
   <si>
-    <t>Insurance Broker System</t>
+    <t>udaychavan12@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -417,9 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C7DC15-9F6E-452D-B0A0-E58975505216}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -428,12 +426,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
